--- a/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
+++ b/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="7935" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="客户端开发完成状态" sheetId="1" r:id="rId1"/>
     <sheet name="BUG状态" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>大项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,22 @@
   </si>
   <si>
     <t>发布货源后，关闭选择框的选与不选都一样，没有起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是按照需求文档的要求进行的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片不需要显示，已经和产品经理确认过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,13 +822,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -831,27 +859,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1164,13 +1180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1196,7 +1212,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1206,12 +1222,12 @@
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="23"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1251,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1262,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="23"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1273,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1284,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1276,12 +1292,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1289,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
@@ -1303,7 +1319,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
@@ -1314,7 +1330,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1325,7 +1341,7 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="14.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1338,7 +1354,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1351,7 +1367,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="23"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1378,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1389,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1400,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1411,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1408,7 +1424,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1435,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1446,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1457,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="40.5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1456,7 +1472,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1467,7 +1483,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="27">
-      <c r="A26" s="23"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1496,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +1507,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1502,7 +1518,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1515,7 +1531,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1542,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1553,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1548,7 +1564,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1559,7 +1575,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="27">
-      <c r="A34" s="23"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1573,14 +1589,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,16 +1610,16 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="56.25" customWidth="1"/>
+    <col min="3" max="3" width="80.125" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
@@ -1628,15 +1644,15 @@
       <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1648,8 +1664,8 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="14" t="s">
         <v>71</v>
       </c>
@@ -1659,8 +1675,8 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
@@ -1670,8 +1686,8 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
@@ -1681,8 +1697,8 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
@@ -1692,9 +1708,9 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1703,8 +1719,8 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
@@ -1714,8 +1730,8 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
@@ -1725,8 +1741,8 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="27">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
@@ -1736,8 +1752,8 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="27">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>79</v>
       </c>
@@ -1747,8 +1763,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
@@ -1758,7 +1774,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1768,10 +1784,12 @@
       <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1784,7 +1802,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1799,7 +1817,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1812,10 +1830,10 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1827,21 +1845,23 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1850,11 +1870,13 @@
       <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1864,8 +1886,8 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1874,7 +1896,9 @@
       <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
+++ b/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="7935" activeTab="1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>大项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,7 +429,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -594,19 +594,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,7 +615,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,7 +623,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -831,6 +831,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,12 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -872,15 +872,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,6 +959,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -988,6 +994,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1163,30 +1170,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1212,7 +1219,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1222,12 +1229,12 @@
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1235,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1258,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1269,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1280,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1284,7 +1291,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1292,12 +1299,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1305,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1326,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1337,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1340,8 +1347,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1361,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1367,7 +1374,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +1385,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1396,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1407,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1418,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1424,7 +1431,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1442,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +1453,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
@@ -1456,8 +1463,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="40.5">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1472,7 +1479,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1482,8 +1489,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="27">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1503,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1507,7 +1514,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1525,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1531,7 +1538,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1549,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1560,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +1571,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1574,8 +1581,8 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="27">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1606,20 +1613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="80.125" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
@@ -1648,11 +1655,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1664,30 +1671,34 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
@@ -1697,41 +1708,47 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
@@ -1740,9 +1757,9 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="27">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
@@ -1751,30 +1768,34 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="27">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1810,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1823,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1817,7 +1838,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +1851,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -1845,7 +1866,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="30"/>
       <c r="C19" s="1" t="s">
         <v>69</v>
@@ -1858,7 +1879,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -1875,7 +1896,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
         <v>62</v>
@@ -1886,7 +1907,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="16" t="s">
         <v>46</v>
       </c>

--- a/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
+++ b/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="7935" activeTab="1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>大项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,7 +429,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -590,23 +590,27 @@
     <t xml:space="preserve">     Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>默认值以加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,7 +619,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,7 +627,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -872,7 +876,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -885,7 +889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -959,7 +963,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -994,7 +997,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,20 +1172,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59.25" customHeight="1">
@@ -1347,7 +1349,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
@@ -1463,7 +1465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45">
+    <row r="24" spans="1:5" ht="40.5">
       <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1491,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="30">
+    <row r="26" spans="1:5" ht="27">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -1581,7 +1583,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="30">
+    <row r="34" spans="1:5" ht="27">
       <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
         <v>46</v>
@@ -1613,20 +1615,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="80.125" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
@@ -1668,7 +1670,9 @@
       <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20"/>
@@ -1757,7 +1761,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="27">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="6" t="s">
@@ -1768,7 +1772,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="27">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="6" t="s">
@@ -1835,7 +1839,9 @@
       <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20"/>
@@ -1848,7 +1854,9 @@
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">

--- a/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
+++ b/560-modify/doc/客户端开发完成状态（2012-1-19）.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>大项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,10 +382,6 @@
   </si>
   <si>
     <t>单条信息显示问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现出现单条信息多于2排时，最下排信息出现显示不全问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,7 +587,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认值以加</t>
+    <t xml:space="preserve">     Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     合同中没有提到要做这个功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里没有发现这个问题。如果有，应该是以前版本的bug，因为我们没有改过定制信息的任何代码。如果还发现有这个问题，也请服务器那边看看。还有，我发现删除定制信息之后，有一点延时，定制信息才会消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮已经加上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里四行的数据都能显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>现出现单条信息多于2排时，最下排信息出现显示不全问题(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我这里四行的数据都能显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +724,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -780,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +886,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1175,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1189,13 +1244,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1214,14 +1269,14 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1231,12 +1286,12 @@
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="22" t="s">
-        <v>58</v>
+      <c r="E3" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1315,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1326,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1337,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1348,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1301,12 +1356,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1314,12 +1369,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -1328,9 +1383,9 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -1339,9 +1394,9 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -1350,7 +1405,7 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="14.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1418,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1376,7 +1431,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1442,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +1453,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1409,7 +1464,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1417,14 +1472,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>19</v>
@@ -1433,7 +1490,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1501,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1512,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1523,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="40.5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1481,7 +1538,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +1549,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="27">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1501,13 +1558,13 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
@@ -1516,9 +1573,9 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>19</v>
@@ -1527,11 +1584,11 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>12</v>
@@ -1540,9 +1597,9 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>12</v>
@@ -1551,9 +1608,9 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1562,9 +1619,9 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
@@ -1573,9 +1630,9 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>12</v>
@@ -1584,16 +1641,16 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="27">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1676,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1632,13 +1689,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -1651,282 +1708,294 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>60</v>
+      <c r="B3" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="27">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="1:5" ht="27">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="27">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
